--- a/TestExcel/Excel_2_多个工作表_工作表顺序乱序_多行.xlsx
+++ b/TestExcel/Excel_2_多个工作表_工作表顺序乱序_多行.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mengc\writeProject\Qt\gitQtWithExcel\QtWithExcel\测试表格\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mengc\writeProject\Qt\gitQtWithExcel\QtWithExcel\TestExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C177F8A-7D4E-4C13-AE8A-A86105AE582F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD88B05-B445-486A-A756-B9A323F42234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2028" yWindow="2316" windowWidth="23040" windowHeight="12120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表格0" sheetId="3" r:id="rId1"/>
@@ -415,10 +415,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>444</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -438,10 +438,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>222</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>555</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -461,7 +461,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>111</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -496,7 +496,7 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <v>8</v>
+        <v>789</v>
       </c>
       <c r="F5">
         <v>9</v>
@@ -513,7 +513,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>123</v>
       </c>
       <c r="D6">
         <v>8</v>
@@ -591,7 +591,7 @@
         <v>12</v>
       </c>
       <c r="F9">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G9">
         <v>14</v>
@@ -694,10 +694,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2</v>
+        <v>222</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>333</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -726,10 +726,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>147</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>555</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -738,7 +738,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>999</v>
       </c>
       <c r="F3">
         <v>7</v>
@@ -808,7 +808,7 @@
         <v>9</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>11</v>
@@ -1137,7 +1137,7 @@
         <v>22</v>
       </c>
       <c r="J15">
-        <v>23</v>
+        <v>812</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1186,7 +1186,7 @@
         <v>19</v>
       </c>
       <c r="E17">
-        <v>20</v>
+        <v>1456</v>
       </c>
       <c r="F17">
         <v>21</v>
@@ -1201,7 +1201,7 @@
         <v>24</v>
       </c>
       <c r="J17">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1254,10 +1254,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>4444</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -1275,7 +1275,7 @@
         <v>7</v>
       </c>
       <c r="H2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>9</v>
@@ -1286,25 +1286,25 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>5555</v>
       </c>
       <c r="B3">
+        <v>6666</v>
+      </c>
+      <c r="C3">
+        <v>888</v>
+      </c>
+      <c r="D3">
+        <v>9999</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="G3">
         <v>3</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>6</v>
-      </c>
-      <c r="F3">
-        <v>7</v>
-      </c>
-      <c r="G3">
-        <v>8</v>
       </c>
       <c r="H3">
         <v>9</v>
